--- a/Resources/EsriUN/Simple/SchemaMappingExercise/WaterSchemaMapper-errors.xlsx
+++ b/Resources/EsriUN/Simple/SchemaMappingExercise/WaterSchemaMapper-errors.xlsx
@@ -1286,7 +1286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="448">
   <si>
     <t>FeatureTypeAttr</t>
   </si>
@@ -2627,9 +2627,6 @@
   </si>
   <si>
     <t>&lt;Null&gt;</t>
-  </si>
-  <si>
-    <t>Material</t>
   </si>
   <si>
     <t>wHydrant</t>
@@ -3008,7 +3005,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3756,9 +3767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O261" sqref="O261"/>
+      <selection pane="bottomLeft" activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4399,7 +4410,7 @@
         <v>444</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>20</v>
@@ -4446,7 +4457,7 @@
         <v>444</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>20</v>
@@ -4489,6 +4500,9 @@
       <c r="E21" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="G21" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M21" s="37" t="s">
         <v>89</v>
       </c>
@@ -4521,6 +4535,9 @@
       <c r="E22" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="G22" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M22" s="37" t="s">
         <v>89</v>
       </c>
@@ -4553,6 +4570,9 @@
       <c r="E23" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="G23" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M23" s="37" t="s">
         <v>89</v>
       </c>
@@ -4585,6 +4605,9 @@
       <c r="E24" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="G24" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M24" s="37" t="s">
         <v>89</v>
       </c>
@@ -4617,6 +4640,9 @@
       <c r="E25" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G25" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M25" s="37" t="s">
         <v>89</v>
       </c>
@@ -4649,6 +4675,9 @@
       <c r="E26" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="G26" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M26" s="37" t="s">
         <v>89</v>
       </c>
@@ -4681,6 +4710,9 @@
       <c r="E27" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="G27" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M27" s="37" t="s">
         <v>89</v>
       </c>
@@ -4713,6 +4745,9 @@
       <c r="E28" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="G28" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M28" s="37" t="s">
         <v>89</v>
       </c>
@@ -4745,6 +4780,9 @@
       <c r="E29" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="G29" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M29" s="37" t="s">
         <v>89</v>
       </c>
@@ -4777,6 +4815,9 @@
       <c r="E30" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="G30" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M30" s="37" t="s">
         <v>89</v>
       </c>
@@ -4809,6 +4850,9 @@
       <c r="E31" t="s">
         <v>351</v>
       </c>
+      <c r="G31" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M31" s="37" t="s">
         <v>89</v>
       </c>
@@ -4841,6 +4885,9 @@
       <c r="E32" t="s">
         <v>352</v>
       </c>
+      <c r="G32" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M32" s="37" t="s">
         <v>89</v>
       </c>
@@ -4873,6 +4920,9 @@
       <c r="E33" t="s">
         <v>353</v>
       </c>
+      <c r="G33" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M33" s="37" t="s">
         <v>89</v>
       </c>
@@ -4905,6 +4955,9 @@
       <c r="E34" t="s">
         <v>354</v>
       </c>
+      <c r="G34" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M34" s="37" t="s">
         <v>89</v>
       </c>
@@ -4937,6 +4990,9 @@
       <c r="E35" t="s">
         <v>355</v>
       </c>
+      <c r="G35" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M35" s="37" t="s">
         <v>89</v>
       </c>
@@ -4969,6 +5025,9 @@
       <c r="E36" t="s">
         <v>356</v>
       </c>
+      <c r="G36" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M36" s="37" t="s">
         <v>89</v>
       </c>
@@ -5001,6 +5060,9 @@
       <c r="E37" t="s">
         <v>357</v>
       </c>
+      <c r="G37" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M37" s="37" t="s">
         <v>89</v>
       </c>
@@ -5033,6 +5095,9 @@
       <c r="E38" t="s">
         <v>358</v>
       </c>
+      <c r="G38" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M38" s="37" t="s">
         <v>89</v>
       </c>
@@ -5065,6 +5130,9 @@
       <c r="E39" t="s">
         <v>359</v>
       </c>
+      <c r="G39" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M39" s="37" t="s">
         <v>89</v>
       </c>
@@ -5097,6 +5165,9 @@
       <c r="E40" t="s">
         <v>360</v>
       </c>
+      <c r="G40" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M40" s="37" t="s">
         <v>89</v>
       </c>
@@ -5129,6 +5200,9 @@
       <c r="E41" t="s">
         <v>361</v>
       </c>
+      <c r="G41" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M41" s="37" t="s">
         <v>89</v>
       </c>
@@ -5161,6 +5235,9 @@
       <c r="E42" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G42" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M42" s="37" t="s">
         <v>89</v>
       </c>
@@ -5193,6 +5270,9 @@
       <c r="E43" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G43" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M43" s="37" t="s">
         <v>89</v>
       </c>
@@ -5225,6 +5305,9 @@
       <c r="E44" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="G44" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M44" s="37" t="s">
         <v>89</v>
       </c>
@@ -5257,6 +5340,9 @@
       <c r="E45" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="G45" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M45" s="37" t="s">
         <v>89</v>
       </c>
@@ -5289,6 +5375,9 @@
       <c r="E46" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G46" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M46" s="37" t="s">
         <v>89</v>
       </c>
@@ -5321,6 +5410,9 @@
       <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="G47" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M47" s="37" t="s">
         <v>89</v>
       </c>
@@ -5353,6 +5445,9 @@
       <c r="E48" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G48" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M48" s="37" t="s">
         <v>89</v>
       </c>
@@ -5385,6 +5480,9 @@
       <c r="E49" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="G49" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M49" s="37" t="s">
         <v>89</v>
       </c>
@@ -5417,6 +5515,9 @@
       <c r="E50" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="G50" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M50" s="37" t="s">
         <v>89</v>
       </c>
@@ -5449,6 +5550,9 @@
       <c r="E51" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G51" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M51" s="37" t="s">
         <v>89</v>
       </c>
@@ -5481,6 +5585,9 @@
       <c r="E52" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="G52" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M52" s="37" t="s">
         <v>89</v>
       </c>
@@ -5513,6 +5620,9 @@
       <c r="E53" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G53" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M53" s="37" t="s">
         <v>89</v>
       </c>
@@ -5545,6 +5655,9 @@
       <c r="E54" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="G54" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M54" s="37" t="s">
         <v>89</v>
       </c>
@@ -5577,6 +5690,9 @@
       <c r="E55" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G55" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M55" s="37" t="s">
         <v>89</v>
       </c>
@@ -5609,6 +5725,9 @@
       <c r="E56" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="G56" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M56" s="37" t="s">
         <v>89</v>
       </c>
@@ -5641,6 +5760,9 @@
       <c r="E57" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G57" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M57" s="37" t="s">
         <v>89</v>
       </c>
@@ -5673,6 +5795,9 @@
       <c r="E58" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G58" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M58" s="37" t="s">
         <v>89</v>
       </c>
@@ -5705,6 +5830,9 @@
       <c r="E59" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="G59" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M59" s="37" t="s">
         <v>89</v>
       </c>
@@ -5737,6 +5865,9 @@
       <c r="E60" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="G60" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M60" s="37" t="s">
         <v>89</v>
       </c>
@@ -5769,6 +5900,9 @@
       <c r="E61" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G61" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M61" s="37" t="s">
         <v>89</v>
       </c>
@@ -5801,6 +5935,9 @@
       <c r="E62" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="G62" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M62" s="37" t="s">
         <v>89</v>
       </c>
@@ -5833,6 +5970,9 @@
       <c r="E63" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G63" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M63" s="37" t="s">
         <v>89</v>
       </c>
@@ -5865,6 +6005,9 @@
       <c r="E64" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="G64" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M64" s="37" t="s">
         <v>89</v>
       </c>
@@ -5897,6 +6040,9 @@
       <c r="E65" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="G65" s="40" t="s">
+        <v>4</v>
+      </c>
       <c r="M65" s="37" t="s">
         <v>89</v>
       </c>
@@ -5932,8 +6078,8 @@
       <c r="F66" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="G66" s="38" t="s">
-        <v>447</v>
+      <c r="G66" s="40" t="s">
+        <v>4</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>18</v>
@@ -5979,7 +6125,7 @@
       <c r="F67" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="40" t="s">
         <v>4</v>
       </c>
       <c r="H67" s="38" t="s">
@@ -7904,7 +8050,7 @@
         <v>36</v>
       </c>
       <c r="F123" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M123" s="45" t="s">
         <v>89</v>
@@ -12485,8 +12631,12 @@
       <c r="H263" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="M263" s="43"/>
-      <c r="N263" s="43"/>
+      <c r="M263" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="N263" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="O263" s="42" t="s">
         <v>1</v>
       </c>
@@ -14456,313 +14606,313 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Q1 A323:B323 A132:L136 M132:Q141 K76:L80 G80:J80 A138:E138 I138:L138 A143:E143 I143:Q143 A175:L198 A217:Q217 B2:C3 A3 A4:E7 B88:C88 F88 I88:J88 A58:E62 A64:E68 A70:E74 A76:E80 A81:L87 D323:Q323 C323:C324 A317:Q322 A314:B316 D314:Q316 A325:E325 D292:E292 A289:B293 D293:F293 D289:F291 A299:B300 D299:L300 A302:B302 D302:L302 C299:C302 A295:Q295 A297:L298 M297:Q310 A303:L310 A230:L233 A267:Q286 M225:Q233 M235:Q266 A235:L243 A234:Q234 B225 B227 B229:L229 A222:Q223 A211:Q215 A169:L173 A144:Q148 A166:E166 G166:Q166 A167:Q168 A199:A207 E209:L209 A209 M169:Q209 A150:Q165 A118:Q131 A95:C106 D94:D106 D110:D112 A43:L56 M2:Q12 A9:E9 D31:D39 A28:Q30 M42:Q93 G288:Q293 A89:L93 E95:Q106 A21:Q26 A16:Q19 F15:J15 A10:L12 G4:L7 G64:L66 G58:L62 A225:A229 C225:L228 A247:L266 F58:F80 H67:H68 H70:H79 G67:G79 J75:J79 J67:L68 J70:L74 I67:I79 F20:G20 I20">
-    <cfRule type="containsText" dxfId="66" priority="158" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A1:Q1 A323:B323 A132:L136 M132:Q141 K76:L80 G80:J80 A138:E138 I138:L138 A143:E143 I143:Q143 A175:L198 A217:Q217 B2:C3 A3 A4:E7 B88:C88 F88 I88:J88 A58:E62 A64:E68 A70:E74 A76:E80 A81:L87 D323:Q323 C323:C324 A317:Q322 A314:B316 D314:Q316 A325:E325 D292:E292 A289:B293 D293:F293 D289:F291 A299:B300 D299:L300 A302:B302 D302:L302 C299:C302 A295:Q295 A297:L298 M297:Q310 A303:L310 A230:L233 A267:Q286 M225:Q233 A235:L243 A234:Q234 B225 B227 B229:L229 A222:Q223 A211:Q215 A169:L173 A144:Q148 A166:E166 G166:Q166 A167:Q168 A199:A207 E209:L209 A209 M169:Q209 A150:Q165 A118:Q131 A95:C106 D94:D106 D110:D112 A43:F56 M2:Q12 A9:E9 D31:D39 A28:F30 M42:Q93 G288:Q293 A89:L93 E95:Q106 A21:F26 A16:Q19 F15:J15 A10:L12 G4:L7 H64:L66 H58:L62 A225:A229 C225:L228 A247:L266 F58:F80 H67:H68 H70:H79 J75:J79 J67:L68 J70:L74 I67:I79 F20:G20 I20 M235:Q266 H21:Q26 H28:Q30 H43:L56 G21:G79">
+    <cfRule type="containsText" dxfId="68" priority="158" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A288:F288 C289:C293">
-    <cfRule type="containsText" dxfId="65" priority="157" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="67" priority="157" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A288)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:E42 G42:L42">
-    <cfRule type="containsText" dxfId="64" priority="154" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A42:E42 H42:L42">
+    <cfRule type="containsText" dxfId="66" priority="154" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:E75 K75:L75">
-    <cfRule type="containsText" dxfId="63" priority="114" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="65" priority="114" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:L57">
-    <cfRule type="containsText" dxfId="62" priority="113" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A57:F57 H57:L57">
+    <cfRule type="containsText" dxfId="64" priority="113" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:E63 G63:L63">
-    <cfRule type="containsText" dxfId="61" priority="112" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A63:E63 H63:L63">
+    <cfRule type="containsText" dxfId="63" priority="112" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:E69 H69 J69:L69">
-    <cfRule type="containsText" dxfId="60" priority="109" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="62" priority="109" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 G3:L3">
-    <cfRule type="containsText" dxfId="59" priority="107" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="61" priority="107" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2 D2:L2 F3:F7">
-    <cfRule type="containsText" dxfId="58" priority="106" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="60" priority="106" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88 G88:H88 D88:E88 K88:L88">
-    <cfRule type="containsText" dxfId="57" priority="95" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="59" priority="95" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:E8 G8:L8">
-    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="58" priority="82" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="55" priority="75" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="57" priority="75" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:L174">
-    <cfRule type="containsText" dxfId="54" priority="64" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A174)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:L137">
-    <cfRule type="containsText" dxfId="53" priority="63" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="55" priority="63" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:L139">
-    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="54" priority="61" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140:L140">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141:L141">
-    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301:B301 D301:L301">
-    <cfRule type="containsText" dxfId="49" priority="58" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244:E244 G244:L244">
-    <cfRule type="containsText" dxfId="48" priority="55" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245:E245 G245:L245">
-    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="49" priority="54" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:L246 F244:F245">
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:Q142">
-    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224:Q224 B226 B228">
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216:Q216">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A210:Q210">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F292">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="43" priority="39" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",F292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A324:B324 D324:Q324">
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A324)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A311:Q311 A312:B313 D312:Q313 C312:C316">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A311)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G287:Q287">
-    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",G287)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287:F287">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="39" priority="35" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A287)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A294:Q294">
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A296:Q296">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218:Q219">
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A218)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220:Q221">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204:L207">
-    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",E204)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203:L203">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",E203)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B199:L199 E202:L202 D202:D207 D209 B209 B200:B207 D200:L201 C200:C209">
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",B199)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208:L208 A208">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D208 B208">
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:Q149">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:C94 E94:Q94">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:Q109 D113:D115">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:C112 E110:Q112">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:C115 E113:Q115">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:D117">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:C117 E116:Q117">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:E15 K15:Q15">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:C33 E31:Q33">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A31:C33 E31:F33 H31:Q33">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C36 E34:Q36">
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A34:C36 E34:F36 H34:Q36">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:C39 E37:Q39">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A37:C39 E37:F39 H37:Q39">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:C41 E40:Q41">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A40:C41 E40:F41 H40:Q41">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:J14">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:E14 K14:Q14">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:E13 G13:Q13">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:E20 H20 J20:Q20">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:E27 G27:Q27">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="&lt;n/a&gt;">
+  <conditionalFormatting sqref="A27:E27 H27:Q27">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16207,27 +16357,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J29 A33:J45 A31:J31 A46:H48">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:J32">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:J30">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",A30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D51">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:D50">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;n/a&gt;">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;n/a&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;n/a&gt;",C50)))</formula>
     </cfRule>
   </conditionalFormatting>
